--- a/Completed Projects/Dolmen City Family Area/BOQ/Running Bill No 2 (will be sent).XLSX
+++ b/Completed Projects/Dolmen City Family Area/BOQ/Running Bill No 2 (will be sent).XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Dolmen City Family Area\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Dolmen City Family Area\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48FABCE-8ADA-40FB-AD96-D95AC5C8F440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0034A-F8D9-47D5-8AF7-F003D6C13E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMM" sheetId="32" r:id="rId1"/>
@@ -1896,7 +1896,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="278">
   <si>
     <t>UNIT</t>
   </si>
@@ -2806,18 +2806,6 @@
       </rPr>
       <t>COST</t>
     </r>
-  </si>
-  <si>
-    <t>Variation</t>
-  </si>
-  <si>
-    <t>32mm PPRV PIPE 21.3 Meter</t>
-  </si>
-  <si>
-    <t>PIPE</t>
-  </si>
-  <si>
-    <t>INSULATON</t>
   </si>
   <si>
     <t>Variations (05 Nos)</t>
@@ -5310,6 +5298,33 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="25" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="26" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="37" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="13" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="15" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="34" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="39" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5346,31 +5361,19 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="53" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="25" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="26" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="37" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="13" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="15" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="34" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="39" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5382,20 +5385,77 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="58" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="57" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="56" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="44" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5414,78 +5474,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="58" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="57" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="56" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -20211,7 +20199,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="307" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C13" s="311"/>
       <c r="D13" s="311"/>
@@ -20269,8 +20257,8 @@
   </sheetPr>
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20340,66 +20328,66 @@
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="352" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="344" t="s">
+      <c r="B5" s="353" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345" t="s">
+      <c r="C5" s="353"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="345"/>
-      <c r="G5" s="345"/>
-      <c r="H5" s="345"/>
-      <c r="I5" s="346" t="s">
+      <c r="F5" s="354"/>
+      <c r="G5" s="354"/>
+      <c r="H5" s="354"/>
+      <c r="I5" s="355" t="s">
         <v>274</v>
       </c>
-      <c r="J5" s="347"/>
-      <c r="K5" s="347"/>
-      <c r="L5" s="347"/>
-      <c r="M5" s="348"/>
+      <c r="J5" s="356"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="356"/>
+      <c r="M5" s="357"/>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="343"/>
-      <c r="B6" s="344"/>
-      <c r="C6" s="344"/>
-      <c r="D6" s="344"/>
-      <c r="E6" s="351" t="s">
+      <c r="A6" s="352"/>
+      <c r="B6" s="353"/>
+      <c r="C6" s="353"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="360" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="351" t="s">
+      <c r="F6" s="362" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="360" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="351" t="s">
+      <c r="H6" s="360" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="346" t="s">
+      <c r="I6" s="355" t="s">
         <v>267</v>
       </c>
-      <c r="J6" s="348"/>
-      <c r="K6" s="346" t="s">
+      <c r="J6" s="357"/>
+      <c r="K6" s="355" t="s">
         <v>268</v>
       </c>
-      <c r="L6" s="348"/>
-      <c r="M6" s="349" t="s">
+      <c r="L6" s="357"/>
+      <c r="M6" s="358" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="343"/>
-      <c r="B7" s="344"/>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="352"/>
-      <c r="F7" s="354"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
+      <c r="A7" s="352"/>
+      <c r="B7" s="353"/>
+      <c r="C7" s="353"/>
+      <c r="D7" s="353"/>
+      <c r="E7" s="361"/>
+      <c r="F7" s="363"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361"/>
       <c r="I7" s="331" t="s">
         <v>275</v>
       </c>
@@ -20412,7 +20400,7 @@
       <c r="L7" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="M7" s="350"/>
+      <c r="M7" s="359"/>
     </row>
     <row r="8" spans="1:19" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="327">
@@ -20591,14 +20579,14 @@
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="359"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="359"/>
-      <c r="E13" s="359"/>
-      <c r="F13" s="360"/>
+      <c r="B13" s="347"/>
+      <c r="C13" s="347"/>
+      <c r="D13" s="347"/>
+      <c r="E13" s="347"/>
+      <c r="F13" s="348"/>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
@@ -20976,14 +20964,14 @@
       <c r="P22" s="136"/>
     </row>
     <row r="23" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="358" t="s">
+      <c r="A23" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="359"/>
-      <c r="C23" s="359"/>
-      <c r="D23" s="359"/>
-      <c r="E23" s="359"/>
-      <c r="F23" s="360"/>
+      <c r="B23" s="347"/>
+      <c r="C23" s="347"/>
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="348"/>
       <c r="G23" s="99"/>
       <c r="H23" s="99"/>
       <c r="I23" s="99"/>
@@ -21109,14 +21097,14 @@
       <c r="P26" s="136"/>
     </row>
     <row r="27" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="358" t="s">
+      <c r="A27" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="359"/>
-      <c r="C27" s="359"/>
-      <c r="D27" s="359"/>
-      <c r="E27" s="359"/>
-      <c r="F27" s="360"/>
+      <c r="B27" s="347"/>
+      <c r="C27" s="347"/>
+      <c r="D27" s="347"/>
+      <c r="E27" s="347"/>
+      <c r="F27" s="348"/>
       <c r="G27" s="99"/>
       <c r="H27" s="99"/>
       <c r="I27" s="99"/>
@@ -21245,14 +21233,14 @@
       <c r="P30" s="136"/>
     </row>
     <row r="31" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="358" t="s">
+      <c r="A31" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="359"/>
-      <c r="C31" s="359"/>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="360"/>
+      <c r="B31" s="347"/>
+      <c r="C31" s="347"/>
+      <c r="D31" s="347"/>
+      <c r="E31" s="347"/>
+      <c r="F31" s="348"/>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
       <c r="I31" s="99"/>
@@ -22214,14 +22202,14 @@
       <c r="P55" s="136"/>
     </row>
     <row r="56" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="358" t="s">
+      <c r="A56" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="359"/>
-      <c r="C56" s="359"/>
-      <c r="D56" s="359"/>
-      <c r="E56" s="359"/>
-      <c r="F56" s="360"/>
+      <c r="B56" s="347"/>
+      <c r="C56" s="347"/>
+      <c r="D56" s="347"/>
+      <c r="E56" s="347"/>
+      <c r="F56" s="348"/>
       <c r="G56" s="99"/>
       <c r="H56" s="99"/>
       <c r="I56" s="99"/>
@@ -22347,14 +22335,14 @@
       <c r="P59" s="136"/>
     </row>
     <row r="60" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="358" t="s">
+      <c r="A60" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="359"/>
-      <c r="C60" s="359"/>
-      <c r="D60" s="359"/>
-      <c r="E60" s="359"/>
-      <c r="F60" s="360"/>
+      <c r="B60" s="347"/>
+      <c r="C60" s="347"/>
+      <c r="D60" s="347"/>
+      <c r="E60" s="347"/>
+      <c r="F60" s="348"/>
       <c r="G60" s="99"/>
       <c r="H60" s="99"/>
       <c r="I60" s="99"/>
@@ -22564,14 +22552,14 @@
       <c r="P65" s="136"/>
     </row>
     <row r="66" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="361" t="s">
+      <c r="A66" s="349" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="362"/>
-      <c r="C66" s="362"/>
-      <c r="D66" s="362"/>
-      <c r="E66" s="362"/>
-      <c r="F66" s="363"/>
+      <c r="B66" s="350"/>
+      <c r="C66" s="350"/>
+      <c r="D66" s="350"/>
+      <c r="E66" s="350"/>
+      <c r="F66" s="351"/>
       <c r="G66" s="100"/>
       <c r="H66" s="100"/>
       <c r="I66" s="100"/>
@@ -22653,14 +22641,14 @@
       <c r="P68" s="136"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="358" t="s">
+      <c r="A69" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="359"/>
-      <c r="C69" s="359"/>
-      <c r="D69" s="359"/>
-      <c r="E69" s="359"/>
-      <c r="F69" s="360"/>
+      <c r="B69" s="347"/>
+      <c r="C69" s="347"/>
+      <c r="D69" s="347"/>
+      <c r="E69" s="347"/>
+      <c r="F69" s="348"/>
       <c r="G69" s="99"/>
       <c r="H69" s="99"/>
       <c r="I69" s="99"/>
@@ -22830,14 +22818,14 @@
       <c r="P73" s="136"/>
     </row>
     <row r="74" spans="1:16" s="47" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="358" t="s">
+      <c r="A74" s="346" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="359"/>
-      <c r="C74" s="359"/>
-      <c r="D74" s="359"/>
-      <c r="E74" s="359"/>
-      <c r="F74" s="360"/>
+      <c r="B74" s="347"/>
+      <c r="C74" s="347"/>
+      <c r="D74" s="347"/>
+      <c r="E74" s="347"/>
+      <c r="F74" s="348"/>
       <c r="G74" s="99"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -22961,14 +22949,14 @@
       <c r="P77" s="136"/>
     </row>
     <row r="78" spans="1:16" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="358" t="s">
+      <c r="A78" s="346" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="359"/>
-      <c r="C78" s="359"/>
-      <c r="D78" s="359"/>
-      <c r="E78" s="359"/>
-      <c r="F78" s="360"/>
+      <c r="B78" s="347"/>
+      <c r="C78" s="347"/>
+      <c r="D78" s="347"/>
+      <c r="E78" s="347"/>
+      <c r="F78" s="348"/>
       <c r="G78" s="99"/>
       <c r="H78" s="99"/>
       <c r="I78" s="99"/>
@@ -23182,14 +23170,14 @@
       <c r="P83" s="136"/>
     </row>
     <row r="84" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="355" t="s">
+      <c r="A84" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="356"/>
-      <c r="C84" s="356"/>
-      <c r="D84" s="356"/>
-      <c r="E84" s="356"/>
-      <c r="F84" s="357"/>
+      <c r="B84" s="344"/>
+      <c r="C84" s="344"/>
+      <c r="D84" s="344"/>
+      <c r="E84" s="344"/>
+      <c r="F84" s="345"/>
       <c r="G84" s="98"/>
       <c r="H84" s="98"/>
       <c r="I84" s="98"/>
@@ -23205,14 +23193,14 @@
       <c r="P84" s="136"/>
     </row>
     <row r="85" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="355" t="s">
+      <c r="A85" s="343" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="356"/>
-      <c r="C85" s="356"/>
-      <c r="D85" s="356"/>
-      <c r="E85" s="356"/>
-      <c r="F85" s="357"/>
+      <c r="B85" s="344"/>
+      <c r="C85" s="344"/>
+      <c r="D85" s="344"/>
+      <c r="E85" s="344"/>
+      <c r="F85" s="345"/>
       <c r="G85" s="98"/>
       <c r="H85" s="98"/>
       <c r="I85" s="98"/>
@@ -23244,6 +23232,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A23:F23"/>
@@ -23256,17 +23255,6 @@
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.53" header="0.5" footer="0.12"/>
@@ -23286,8 +23274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FDDD83-C345-477F-855D-002DC27A8863}">
   <dimension ref="A1:BD186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23344,19 +23332,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:56" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="364" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="367"/>
-      <c r="C4" s="367"/>
-      <c r="D4" s="367"/>
-      <c r="E4" s="367"/>
-      <c r="F4" s="367"/>
-      <c r="G4" s="367"/>
-      <c r="H4" s="367"/>
-      <c r="I4" s="367"/>
-      <c r="J4" s="367"/>
-      <c r="K4" s="367"/>
+      <c r="B4" s="364"/>
+      <c r="C4" s="364"/>
+      <c r="D4" s="364"/>
+      <c r="E4" s="364"/>
+      <c r="F4" s="364"/>
+      <c r="G4" s="364"/>
+      <c r="H4" s="364"/>
+      <c r="I4" s="364"/>
+      <c r="J4" s="364"/>
+      <c r="K4" s="364"/>
     </row>
     <row r="5" spans="1:56" s="232" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -23417,60 +23405,60 @@
       <c r="BD5" s="1"/>
     </row>
     <row r="6" spans="1:56" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="343" t="s">
+      <c r="A6" s="352" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="353" t="s">
+      <c r="B6" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="345" t="s">
+      <c r="C6" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="346" t="s">
+      <c r="D6" s="354"/>
+      <c r="E6" s="354"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="355" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="347"/>
-      <c r="I6" s="347"/>
-      <c r="J6" s="347"/>
-      <c r="K6" s="348"/>
+      <c r="H6" s="356"/>
+      <c r="I6" s="356"/>
+      <c r="J6" s="356"/>
+      <c r="K6" s="357"/>
     </row>
     <row r="7" spans="1:56" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="343"/>
-      <c r="B7" s="364"/>
-      <c r="C7" s="351" t="s">
+      <c r="A7" s="352"/>
+      <c r="B7" s="369"/>
+      <c r="C7" s="360" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="351" t="s">
+      <c r="D7" s="362" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="360" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="351" t="s">
+      <c r="F7" s="360" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="346" t="s">
+      <c r="G7" s="355" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="348"/>
-      <c r="I7" s="346" t="s">
+      <c r="H7" s="357"/>
+      <c r="I7" s="355" t="s">
         <v>268</v>
       </c>
-      <c r="J7" s="348"/>
-      <c r="K7" s="349" t="s">
+      <c r="J7" s="357"/>
+      <c r="K7" s="358" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:56" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="343"/>
-      <c r="B8" s="365"/>
-      <c r="C8" s="366"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="366"/>
-      <c r="F8" s="366"/>
+      <c r="A8" s="352"/>
+      <c r="B8" s="370"/>
+      <c r="C8" s="371"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="371"/>
+      <c r="F8" s="371"/>
       <c r="G8" s="331" t="s">
         <v>275</v>
       </c>
@@ -23483,7 +23471,7 @@
       <c r="J8" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="K8" s="350"/>
+      <c r="K8" s="359"/>
     </row>
     <row r="9" spans="1:56" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -23629,12 +23617,12 @@
       <c r="N12" s="136"/>
     </row>
     <row r="13" spans="1:56" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="368" t="s">
+      <c r="A13" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="369"/>
-      <c r="C13" s="369"/>
-      <c r="D13" s="369"/>
+      <c r="B13" s="366"/>
+      <c r="C13" s="366"/>
+      <c r="D13" s="366"/>
       <c r="E13" s="241"/>
       <c r="F13" s="241"/>
       <c r="G13" s="241"/>
@@ -23713,12 +23701,12 @@
       <c r="N15" s="136"/>
     </row>
     <row r="16" spans="1:56" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="368" t="s">
+      <c r="A16" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="369"/>
-      <c r="C16" s="369"/>
-      <c r="D16" s="369"/>
+      <c r="B16" s="366"/>
+      <c r="C16" s="366"/>
+      <c r="D16" s="366"/>
       <c r="E16" s="248"/>
       <c r="F16" s="248"/>
       <c r="G16" s="248"/>
@@ -23791,19 +23779,17 @@
         <f>J18+H18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="136">
-        <v>1</v>
-      </c>
+      <c r="L18" s="136"/>
       <c r="M18" s="136"/>
       <c r="N18" s="136"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="369"/>
-      <c r="C19" s="369"/>
-      <c r="D19" s="369"/>
+      <c r="B19" s="366"/>
+      <c r="C19" s="366"/>
+      <c r="D19" s="366"/>
       <c r="E19" s="241"/>
       <c r="F19" s="241"/>
       <c r="G19" s="241"/>
@@ -24285,12 +24271,12 @@
       <c r="N32" s="136"/>
     </row>
     <row r="33" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="368" t="s">
+      <c r="A33" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="369"/>
-      <c r="C33" s="369"/>
-      <c r="D33" s="369"/>
+      <c r="B33" s="366"/>
+      <c r="C33" s="366"/>
+      <c r="D33" s="366"/>
       <c r="E33" s="241"/>
       <c r="F33" s="241"/>
       <c r="G33" s="241"/>
@@ -25172,12 +25158,12 @@
       <c r="N57" s="136"/>
     </row>
     <row r="58" spans="1:14" s="266" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="368" t="s">
+      <c r="A58" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="369"/>
-      <c r="C58" s="369"/>
-      <c r="D58" s="369"/>
+      <c r="B58" s="366"/>
+      <c r="C58" s="366"/>
+      <c r="D58" s="366"/>
       <c r="E58" s="241"/>
       <c r="F58" s="241"/>
       <c r="G58" s="241"/>
@@ -25255,12 +25241,12 @@
       <c r="N60" s="136"/>
     </row>
     <row r="61" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="368" t="s">
+      <c r="A61" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="369"/>
-      <c r="C61" s="369"/>
-      <c r="D61" s="369"/>
+      <c r="B61" s="366"/>
+      <c r="C61" s="366"/>
+      <c r="D61" s="366"/>
       <c r="E61" s="241"/>
       <c r="F61" s="241"/>
       <c r="G61" s="241"/>
@@ -25807,12 +25793,12 @@
       <c r="N75" s="136"/>
     </row>
     <row r="76" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="368" t="s">
+      <c r="A76" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="369"/>
-      <c r="C76" s="369"/>
-      <c r="D76" s="369"/>
+      <c r="B76" s="366"/>
+      <c r="C76" s="366"/>
+      <c r="D76" s="366"/>
       <c r="E76" s="241"/>
       <c r="F76" s="241"/>
       <c r="G76" s="241"/>
@@ -25890,12 +25876,12 @@
       <c r="N78" s="136"/>
     </row>
     <row r="79" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="368" t="s">
+      <c r="A79" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="369"/>
-      <c r="C79" s="369"/>
-      <c r="D79" s="369"/>
+      <c r="B79" s="366"/>
+      <c r="C79" s="366"/>
+      <c r="D79" s="366"/>
       <c r="E79" s="241"/>
       <c r="F79" s="241"/>
       <c r="G79" s="241"/>
@@ -26183,12 +26169,12 @@
       <c r="N86" s="136"/>
     </row>
     <row r="87" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="370" t="s">
+      <c r="A87" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="371"/>
-      <c r="C87" s="371"/>
-      <c r="D87" s="371"/>
+      <c r="B87" s="368"/>
+      <c r="C87" s="368"/>
+      <c r="D87" s="368"/>
       <c r="E87" s="288"/>
       <c r="F87" s="288"/>
       <c r="G87" s="288"/>
@@ -26204,12 +26190,12 @@
       <c r="N87" s="136"/>
     </row>
     <row r="88" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="370" t="s">
+      <c r="A88" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="371"/>
-      <c r="C88" s="371"/>
-      <c r="D88" s="371"/>
+      <c r="B88" s="368"/>
+      <c r="C88" s="368"/>
+      <c r="D88" s="368"/>
       <c r="E88" s="289"/>
       <c r="F88" s="289"/>
       <c r="G88" s="289"/>
@@ -27422,6 +27408,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A79:D79"/>
@@ -27438,12 +27430,6 @@
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.23622047244094491" top="0.74803149606299213" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.11811023622047245"/>
@@ -27458,10 +27444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E529EE7-3D03-4D77-82C0-F023BBCF12AB}">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView showGridLines="0" defaultGridColor="0" topLeftCell="A86" colorId="8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="A67" colorId="8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -27925,11 +27911,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="108" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="395" t="s">
+      <c r="A1" s="372" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="395"/>
-      <c r="C1" s="395"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
       <c r="F1" s="109"/>
       <c r="G1" s="5"/>
       <c r="H1" s="110"/>
@@ -27962,19 +27948,19 @@
       <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:12" s="116" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="396" t="s">
+      <c r="A4" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="D4" s="396"/>
-      <c r="E4" s="396"/>
-      <c r="F4" s="396"/>
-      <c r="G4" s="396"/>
-      <c r="H4" s="396"/>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="373"/>
+      <c r="H4" s="373"/>
+      <c r="I4" s="373"/>
+      <c r="J4" s="373"/>
+      <c r="K4" s="373"/>
     </row>
     <row r="5" spans="1:12" s="118" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117"/>
@@ -27988,63 +27974,63 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="343" t="s">
+      <c r="A6" s="352" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="372" t="s">
+      <c r="B6" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="373"/>
-      <c r="D6" s="345" t="s">
+      <c r="C6" s="397"/>
+      <c r="D6" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="346" t="s">
+      <c r="E6" s="354"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="354"/>
+      <c r="H6" s="355" t="s">
         <v>274</v>
       </c>
-      <c r="I6" s="347"/>
-      <c r="J6" s="347"/>
-      <c r="K6" s="347"/>
-      <c r="L6" s="348"/>
+      <c r="I6" s="356"/>
+      <c r="J6" s="356"/>
+      <c r="K6" s="356"/>
+      <c r="L6" s="357"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="343"/>
-      <c r="B7" s="374"/>
-      <c r="C7" s="375"/>
-      <c r="D7" s="351" t="s">
+      <c r="A7" s="352"/>
+      <c r="B7" s="398"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="360" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="351" t="s">
+      <c r="E7" s="362" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="360" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="351" t="s">
+      <c r="G7" s="360" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="346" t="s">
+      <c r="H7" s="355" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="348"/>
-      <c r="J7" s="346" t="s">
+      <c r="I7" s="357"/>
+      <c r="J7" s="355" t="s">
         <v>268</v>
       </c>
-      <c r="K7" s="348"/>
-      <c r="L7" s="349" t="s">
+      <c r="K7" s="357"/>
+      <c r="L7" s="358" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="343"/>
-      <c r="B8" s="376"/>
-      <c r="C8" s="377"/>
-      <c r="D8" s="352"/>
-      <c r="E8" s="354"/>
-      <c r="F8" s="352"/>
-      <c r="G8" s="352"/>
+      <c r="A8" s="352"/>
+      <c r="B8" s="400"/>
+      <c r="C8" s="401"/>
+      <c r="D8" s="361"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="361"/>
       <c r="H8" s="331" t="s">
         <v>275</v>
       </c>
@@ -28057,7 +28043,7 @@
       <c r="K8" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="L8" s="350"/>
+      <c r="L8" s="359"/>
     </row>
     <row r="9" spans="1:12" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="121">
@@ -28081,18 +28067,18 @@
       <c r="A10" s="127">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="383" t="s">
+      <c r="B10" s="389" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="384"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="384"/>
-      <c r="F10" s="384"/>
-      <c r="G10" s="384"/>
-      <c r="H10" s="384"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="384"/>
-      <c r="K10" s="385"/>
+      <c r="C10" s="390"/>
+      <c r="D10" s="390"/>
+      <c r="E10" s="390"/>
+      <c r="F10" s="390"/>
+      <c r="G10" s="390"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="390"/>
+      <c r="J10" s="390"/>
+      <c r="K10" s="391"/>
       <c r="L10" s="137"/>
     </row>
     <row r="11" spans="1:12" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28660,10 +28646,10 @@
       <c r="A27" s="154">
         <v>1.3</v>
       </c>
-      <c r="B27" s="386" t="s">
+      <c r="B27" s="392" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="387"/>
+      <c r="C27" s="393"/>
       <c r="D27" s="155">
         <v>1</v>
       </c>
@@ -28703,10 +28689,10 @@
       <c r="A28" s="154">
         <v>1.4</v>
       </c>
-      <c r="B28" s="388" t="s">
+      <c r="B28" s="382" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="389"/>
+      <c r="C28" s="383"/>
       <c r="D28" s="155">
         <v>1</v>
       </c>
@@ -28742,14 +28728,14 @@
       <c r="N28" s="136"/>
       <c r="O28" s="136"/>
     </row>
-    <row r="29" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="128" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="156">
         <v>1.5</v>
       </c>
-      <c r="B29" s="386" t="s">
+      <c r="B29" s="392" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="387"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="157">
         <v>5</v>
       </c>
@@ -28785,14 +28771,14 @@
       <c r="N29" s="136"/>
       <c r="O29" s="136"/>
     </row>
-    <row r="30" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="128" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="154">
         <v>1.6</v>
       </c>
-      <c r="B30" s="386" t="s">
+      <c r="B30" s="392" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="387"/>
+      <c r="C30" s="393"/>
       <c r="D30" s="157">
         <v>1</v>
       </c>
@@ -28832,10 +28818,10 @@
       <c r="A31" s="156">
         <v>1.7</v>
       </c>
-      <c r="B31" s="386" t="s">
+      <c r="B31" s="392" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="387"/>
+      <c r="C31" s="393"/>
       <c r="D31" s="157">
         <v>1</v>
       </c>
@@ -28872,13 +28858,13 @@
       <c r="O31" s="136"/>
     </row>
     <row r="32" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="390" t="s">
+      <c r="A32" s="384" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="391"/>
-      <c r="C32" s="391"/>
-      <c r="D32" s="391"/>
-      <c r="E32" s="392"/>
+      <c r="B32" s="385"/>
+      <c r="C32" s="385"/>
+      <c r="D32" s="385"/>
+      <c r="E32" s="386"/>
       <c r="F32" s="159"/>
       <c r="G32" s="160">
         <f>SUM(G11:G31)</f>
@@ -28902,7 +28888,7 @@
       <c r="N32" s="136"/>
       <c r="O32" s="136"/>
     </row>
-    <row r="33" spans="1:17" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="121">
         <v>2</v>
       </c>
@@ -28922,7 +28908,7 @@
       <c r="N33" s="136"/>
       <c r="O33" s="136"/>
     </row>
-    <row r="34" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="168">
         <v>2.1</v>
       </c>
@@ -28942,7 +28928,7 @@
       <c r="N34" s="136"/>
       <c r="O34" s="136"/>
     </row>
-    <row r="35" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="129" t="s">
         <v>139</v>
       </c>
@@ -28977,17 +28963,10 @@
       </c>
       <c r="L35" s="137"/>
       <c r="M35" s="136"/>
-      <c r="N35" s="136" t="s">
-        <v>277</v>
-      </c>
-      <c r="O35" s="136" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q35" s="174" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+    </row>
+    <row r="36" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="129" t="s">
         <v>140</v>
       </c>
@@ -29030,7 +29009,7 @@
       <c r="N36" s="136"/>
       <c r="O36" s="136"/>
     </row>
-    <row r="37" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="129" t="s">
         <v>141</v>
       </c>
@@ -29068,7 +29047,7 @@
       <c r="N37" s="136"/>
       <c r="O37" s="136"/>
     </row>
-    <row r="38" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="168">
         <v>2.2000000000000002</v>
       </c>
@@ -29089,7 +29068,7 @@
       <c r="N38" s="136"/>
       <c r="O38" s="136"/>
     </row>
-    <row r="39" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="178" t="s">
         <v>142</v>
       </c>
@@ -29110,7 +29089,7 @@
       <c r="N39" s="136"/>
       <c r="O39" s="136"/>
     </row>
-    <row r="40" spans="1:17" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="129" t="s">
         <v>144</v>
       </c>
@@ -29153,7 +29132,7 @@
       <c r="N40" s="136"/>
       <c r="O40" s="136"/>
     </row>
-    <row r="41" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="178" t="s">
         <v>145</v>
       </c>
@@ -29174,7 +29153,7 @@
       <c r="N41" s="136"/>
       <c r="O41" s="136"/>
     </row>
-    <row r="42" spans="1:17" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="129" t="s">
         <v>146</v>
       </c>
@@ -29212,7 +29191,7 @@
       <c r="N42" s="136"/>
       <c r="O42" s="136"/>
     </row>
-    <row r="43" spans="1:17" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="129" t="s">
         <v>147</v>
       </c>
@@ -29256,7 +29235,7 @@
       <c r="N43" s="136"/>
       <c r="O43" s="136"/>
     </row>
-    <row r="44" spans="1:17" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="174" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="129" t="s">
         <v>148</v>
       </c>
@@ -29294,7 +29273,7 @@
       <c r="N44" s="136"/>
       <c r="O44" s="136"/>
     </row>
-    <row r="45" spans="1:17" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="127" t="s">
         <v>149</v>
       </c>
@@ -29315,7 +29294,7 @@
       <c r="N45" s="136"/>
       <c r="O45" s="136"/>
     </row>
-    <row r="46" spans="1:17" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="129" t="s">
         <v>150</v>
       </c>
@@ -29358,7 +29337,7 @@
       <c r="N46" s="136"/>
       <c r="O46" s="136"/>
     </row>
-    <row r="47" spans="1:17" s="187" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="187" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="182">
         <v>2.2999999999999998</v>
       </c>
@@ -29379,7 +29358,7 @@
       <c r="N47" s="136"/>
       <c r="O47" s="136"/>
     </row>
-    <row r="48" spans="1:17" s="191" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="191" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="188" t="s">
         <v>152</v>
       </c>
@@ -29414,16 +29393,9 @@
       </c>
       <c r="L48" s="137"/>
       <c r="M48" s="136"/>
-      <c r="N48" s="136" t="s">
-        <v>277</v>
-      </c>
-      <c r="O48" s="136" t="s">
-        <v>278</v>
-      </c>
+      <c r="N48" s="136"/>
+      <c r="O48" s="136"/>
       <c r="P48" s="174"/>
-      <c r="Q48" s="191" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="49" spans="1:15" s="192" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="188" t="s">
@@ -29512,10 +29484,10 @@
       <c r="A51" s="193">
         <v>2.4</v>
       </c>
-      <c r="B51" s="386" t="s">
+      <c r="B51" s="392" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="387"/>
+      <c r="C51" s="393"/>
       <c r="D51" s="146">
         <v>1</v>
       </c>
@@ -29555,10 +29527,10 @@
       <c r="A52" s="193">
         <v>2.5</v>
       </c>
-      <c r="B52" s="386" t="s">
+      <c r="B52" s="392" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="387"/>
+      <c r="C52" s="393"/>
       <c r="D52" s="146">
         <v>1</v>
       </c>
@@ -29619,10 +29591,10 @@
       <c r="A54" s="188" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="393" t="s">
+      <c r="B54" s="394" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="394"/>
+      <c r="C54" s="395"/>
       <c r="D54" s="190">
         <v>2</v>
       </c>
@@ -29659,13 +29631,13 @@
       <c r="O54" s="136"/>
     </row>
     <row r="55" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="390" t="s">
+      <c r="A55" s="384" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="391"/>
-      <c r="C55" s="391"/>
-      <c r="D55" s="391"/>
-      <c r="E55" s="392"/>
+      <c r="B55" s="385"/>
+      <c r="C55" s="385"/>
+      <c r="D55" s="385"/>
+      <c r="E55" s="386"/>
       <c r="F55" s="159"/>
       <c r="G55" s="160">
         <f>SUM(G35:G54)</f>
@@ -29713,18 +29685,18 @@
       <c r="A57" s="168">
         <v>3.1</v>
       </c>
-      <c r="B57" s="380" t="s">
+      <c r="B57" s="379" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="381"/>
-      <c r="D57" s="381"/>
-      <c r="E57" s="381"/>
-      <c r="F57" s="381"/>
-      <c r="G57" s="381"/>
-      <c r="H57" s="381"/>
-      <c r="I57" s="381"/>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382"/>
+      <c r="C57" s="380"/>
+      <c r="D57" s="380"/>
+      <c r="E57" s="380"/>
+      <c r="F57" s="380"/>
+      <c r="G57" s="380"/>
+      <c r="H57" s="380"/>
+      <c r="I57" s="380"/>
+      <c r="J57" s="380"/>
+      <c r="K57" s="381"/>
       <c r="L57" s="137"/>
       <c r="M57" s="136"/>
       <c r="N57" s="136"/>
@@ -29930,18 +29902,18 @@
       <c r="A63" s="168">
         <v>3.2</v>
       </c>
-      <c r="B63" s="380" t="s">
+      <c r="B63" s="379" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="381"/>
-      <c r="D63" s="381"/>
-      <c r="E63" s="381"/>
-      <c r="F63" s="381"/>
-      <c r="G63" s="381"/>
-      <c r="H63" s="381"/>
-      <c r="I63" s="381"/>
-      <c r="J63" s="381"/>
-      <c r="K63" s="382"/>
+      <c r="C63" s="380"/>
+      <c r="D63" s="380"/>
+      <c r="E63" s="380"/>
+      <c r="F63" s="380"/>
+      <c r="G63" s="380"/>
+      <c r="H63" s="380"/>
+      <c r="I63" s="380"/>
+      <c r="J63" s="380"/>
+      <c r="K63" s="381"/>
       <c r="M63" s="136"/>
       <c r="N63" s="136"/>
       <c r="O63" s="136"/>
@@ -30071,18 +30043,18 @@
       <c r="A67" s="168">
         <v>3.3</v>
       </c>
-      <c r="B67" s="380" t="s">
+      <c r="B67" s="379" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="381"/>
-      <c r="D67" s="381"/>
-      <c r="E67" s="381"/>
-      <c r="F67" s="381"/>
-      <c r="G67" s="381"/>
-      <c r="H67" s="381"/>
-      <c r="I67" s="381"/>
-      <c r="J67" s="381"/>
-      <c r="K67" s="382"/>
+      <c r="C67" s="380"/>
+      <c r="D67" s="380"/>
+      <c r="E67" s="380"/>
+      <c r="F67" s="380"/>
+      <c r="G67" s="380"/>
+      <c r="H67" s="380"/>
+      <c r="I67" s="380"/>
+      <c r="J67" s="380"/>
+      <c r="K67" s="381"/>
       <c r="L67" s="137"/>
       <c r="M67" s="136"/>
       <c r="N67" s="136"/>
@@ -30278,7 +30250,9 @@
         <f t="shared" ref="L73:L75" si="31">K73+I73</f>
         <v>0</v>
       </c>
-      <c r="M73" s="136"/>
+      <c r="M73" s="136">
+        <v>4</v>
+      </c>
       <c r="N73" s="136"/>
       <c r="O73" s="136"/>
     </row>
@@ -30286,10 +30260,10 @@
       <c r="A74" s="203">
         <v>3.4</v>
       </c>
-      <c r="B74" s="388" t="s">
+      <c r="B74" s="382" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="389"/>
+      <c r="C74" s="383"/>
       <c r="D74" s="201">
         <v>1</v>
       </c>
@@ -30319,7 +30293,9 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="M74" s="136"/>
+      <c r="M74" s="136">
+        <v>1</v>
+      </c>
       <c r="N74" s="136"/>
       <c r="O74" s="136"/>
     </row>
@@ -30327,10 +30303,10 @@
       <c r="A75" s="203">
         <v>3.5</v>
       </c>
-      <c r="B75" s="388" t="s">
+      <c r="B75" s="382" t="s">
         <v>185</v>
       </c>
-      <c r="C75" s="389"/>
+      <c r="C75" s="383"/>
       <c r="D75" s="201">
         <v>1</v>
       </c>
@@ -30360,18 +30336,20 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="M75" s="136"/>
+      <c r="M75" s="136">
+        <v>1</v>
+      </c>
       <c r="N75" s="136"/>
       <c r="O75" s="136"/>
     </row>
     <row r="76" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="390" t="s">
+      <c r="A76" s="384" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="391"/>
-      <c r="C76" s="391"/>
-      <c r="D76" s="391"/>
-      <c r="E76" s="392"/>
+      <c r="B76" s="385"/>
+      <c r="C76" s="385"/>
+      <c r="D76" s="385"/>
+      <c r="E76" s="386"/>
       <c r="F76" s="159"/>
       <c r="G76" s="160">
         <f>SUM(G58:G75)</f>
@@ -30419,10 +30397,10 @@
       <c r="A78" s="210">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B78" s="400" t="s">
+      <c r="B78" s="377" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="401"/>
+      <c r="C78" s="378"/>
       <c r="D78" s="211">
         <v>3</v>
       </c>
@@ -30452,7 +30430,9 @@
         <f t="shared" ref="L78:L86" si="35">K78+I78</f>
         <v>0</v>
       </c>
-      <c r="M78" s="136"/>
+      <c r="M78" s="136">
+        <v>2</v>
+      </c>
       <c r="N78" s="136"/>
       <c r="O78" s="136"/>
     </row>
@@ -30460,10 +30440,10 @@
       <c r="A79" s="210">
         <v>4.2</v>
       </c>
-      <c r="B79" s="400" t="s">
+      <c r="B79" s="377" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="401"/>
+      <c r="C79" s="378"/>
       <c r="D79" s="211">
         <v>3</v>
       </c>
@@ -30493,7 +30473,9 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M79" s="136"/>
+      <c r="M79" s="136">
+        <v>4</v>
+      </c>
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
     </row>
@@ -30501,10 +30483,10 @@
       <c r="A80" s="210">
         <v>4.3</v>
       </c>
-      <c r="B80" s="400" t="s">
+      <c r="B80" s="377" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="401"/>
+      <c r="C80" s="378"/>
       <c r="D80" s="211">
         <v>3</v>
       </c>
@@ -30542,10 +30524,10 @@
       <c r="A81" s="210">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B81" s="400" t="s">
+      <c r="B81" s="377" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="401"/>
+      <c r="C81" s="378"/>
       <c r="D81" s="211">
         <v>1</v>
       </c>
@@ -30575,7 +30557,9 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M81" s="136"/>
+      <c r="M81" s="136">
+        <v>1</v>
+      </c>
       <c r="N81" s="136"/>
       <c r="O81" s="136"/>
     </row>
@@ -30583,10 +30567,10 @@
       <c r="A82" s="210">
         <v>4.5</v>
       </c>
-      <c r="B82" s="400" t="s">
+      <c r="B82" s="377" t="s">
         <v>191</v>
       </c>
-      <c r="C82" s="401"/>
+      <c r="C82" s="378"/>
       <c r="D82" s="211">
         <v>3</v>
       </c>
@@ -30616,7 +30600,9 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M82" s="136"/>
+      <c r="M82" s="136">
+        <v>2</v>
+      </c>
       <c r="N82" s="136"/>
       <c r="O82" s="136"/>
     </row>
@@ -30657,7 +30643,9 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M83" s="136"/>
+      <c r="M83" s="136">
+        <v>2</v>
+      </c>
       <c r="N83" s="136"/>
       <c r="O83" s="136"/>
     </row>
@@ -30698,7 +30686,9 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M84" s="136"/>
+      <c r="M84" s="136">
+        <v>5</v>
+      </c>
       <c r="N84" s="136"/>
       <c r="O84" s="136"/>
     </row>
@@ -30706,10 +30696,10 @@
       <c r="A85" s="210">
         <v>4.8</v>
       </c>
-      <c r="B85" s="388" t="s">
+      <c r="B85" s="382" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="389"/>
+      <c r="C85" s="383"/>
       <c r="D85" s="214">
         <v>1</v>
       </c>
@@ -30739,7 +30729,9 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M85" s="136"/>
+      <c r="M85" s="136">
+        <v>1</v>
+      </c>
       <c r="N85" s="136"/>
       <c r="O85" s="136"/>
     </row>
@@ -30747,10 +30739,10 @@
       <c r="A86" s="210">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B86" s="400" t="s">
+      <c r="B86" s="377" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="401"/>
+      <c r="C86" s="378"/>
       <c r="D86" s="211">
         <v>3</v>
       </c>
@@ -30785,13 +30777,13 @@
       <c r="O86" s="136"/>
     </row>
     <row r="87" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="390" t="s">
+      <c r="A87" s="384" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="391"/>
-      <c r="C87" s="391"/>
-      <c r="D87" s="391"/>
-      <c r="E87" s="392"/>
+      <c r="B87" s="385"/>
+      <c r="C87" s="385"/>
+      <c r="D87" s="385"/>
+      <c r="E87" s="386"/>
       <c r="F87" s="159"/>
       <c r="G87" s="160">
         <f>SUM(G78:G86)</f>
@@ -30958,7 +30950,9 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="M91" s="136"/>
+      <c r="M91" s="136">
+        <v>1</v>
+      </c>
       <c r="N91" s="136"/>
       <c r="O91" s="136"/>
     </row>
@@ -30966,10 +30960,10 @@
       <c r="A92" s="221">
         <v>5.4</v>
       </c>
-      <c r="B92" s="378" t="s">
+      <c r="B92" s="387" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="379"/>
+      <c r="C92" s="388"/>
       <c r="D92" s="201">
         <v>1</v>
       </c>
@@ -30999,7 +30993,9 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="M92" s="136"/>
+      <c r="M92" s="136">
+        <v>1</v>
+      </c>
       <c r="N92" s="136"/>
       <c r="O92" s="136"/>
     </row>
@@ -31007,10 +31003,10 @@
       <c r="A93" s="221">
         <v>5.5</v>
       </c>
-      <c r="B93" s="378" t="s">
+      <c r="B93" s="387" t="s">
         <v>198</v>
       </c>
-      <c r="C93" s="379"/>
+      <c r="C93" s="388"/>
       <c r="D93" s="201">
         <v>1</v>
       </c>
@@ -31047,13 +31043,13 @@
       <c r="O93" s="136"/>
     </row>
     <row r="94" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="397" t="s">
+      <c r="A94" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="398"/>
-      <c r="C94" s="398"/>
-      <c r="D94" s="398"/>
-      <c r="E94" s="399"/>
+      <c r="B94" s="375"/>
+      <c r="C94" s="375"/>
+      <c r="D94" s="375"/>
+      <c r="E94" s="376"/>
       <c r="F94" s="224"/>
       <c r="G94" s="160"/>
       <c r="H94" s="224"/>
@@ -31075,13 +31071,13 @@
       <c r="O94" s="136"/>
     </row>
     <row r="95" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="397" t="s">
+      <c r="A95" s="374" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="398"/>
-      <c r="C95" s="398"/>
-      <c r="D95" s="398"/>
-      <c r="E95" s="399"/>
+      <c r="B95" s="375"/>
+      <c r="C95" s="375"/>
+      <c r="D95" s="375"/>
+      <c r="E95" s="376"/>
       <c r="F95" s="224"/>
       <c r="G95" s="160"/>
       <c r="H95" s="224"/>
@@ -31101,6 +31097,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A94:E94"/>
@@ -31117,32 +31139,6 @@
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.74803149606299213" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
